--- a/output/EventSummary/practitioner-ident-1.xlsx
+++ b/output/EventSummary/practitioner-ident-1.xlsx
@@ -919,7 +919,7 @@
     <t>Employee number</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](extension-rendered-value.html).</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](https://build.fhir.org/ig/hl7au/au-fhir-base/extension-rendered-value.html).</t>
   </si>
   <si>
     <t>Practitioner.active</t>

--- a/output/EventSummary/practitioner-ident-1.xlsx
+++ b/output/EventSummary/practitioner-ident-1.xlsx
@@ -919,7 +919,7 @@
     <t>Employee number</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](https://build.fhir.org/ig/hl7au/au-fhir-base/extension-rendered-value.html).</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](extension-rendered-value.html).</t>
   </si>
   <si>
     <t>Practitioner.active</t>

--- a/output/EventSummary/practitioner-ident-1.xlsx
+++ b/output/EventSummary/practitioner-ident-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4489" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4489" uniqueCount="442">
   <si>
     <t>Path</t>
   </si>
@@ -768,7 +768,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="AHPRA Registration Number"/&gt;</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="AHPRA registration number"/&gt;</t>
   </si>
   <si>
     <t>The namespace for the identifier value</t>
@@ -1250,7 +1250,7 @@
     <t>Details of registration with the Australian Health Practitioner Regulation Authority (AHPRA).</t>
   </si>
   <si>
-    <t>AHPRA Registration Number</t>
+    <t>AHPRA registration number</t>
   </si>
   <si>
     <t xml:space="preserve">inv-ahpra-qual-value-0:The AHPRA registration value shall start with 3 uppercase letters, followed by 10 digits. {value.matches('^[A-Z]{3}[0-9]{10}$')}
@@ -1291,9 +1291,6 @@
   </si>
   <si>
     <t>Practitioner.qualification.identifier.value</t>
-  </si>
-  <si>
-    <t>AHPRA registration number</t>
   </si>
   <si>
     <t>Practitioner.qualification.identifier.period</t>
@@ -14093,7 +14090,7 @@
         <v>123</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="L113" t="s" s="2">
         <v>186</v>
@@ -14178,7 +14175,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14287,7 +14284,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14424,10 +14421,10 @@
         <v>144</v>
       </c>
       <c r="K116" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L116" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -14507,7 +14504,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14616,7 +14613,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14727,7 +14724,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -14840,7 +14837,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14866,7 +14863,7 @@
         <v>123</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L120" t="s" s="2">
         <v>167</v>
@@ -15173,7 +15170,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15282,7 +15279,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15393,7 +15390,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15419,13 +15416,13 @@
         <v>123</v>
       </c>
       <c r="K125" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L125" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L125" t="s" s="2">
+      <c r="M125" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -15475,16 +15472,16 @@
         <v>40</v>
       </c>
       <c r="AE125" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AF125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG125" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH125" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AF125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG125" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH125" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>40</v>
@@ -15504,7 +15501,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15530,13 +15527,13 @@
         <v>108</v>
       </c>
       <c r="K126" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L126" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="L126" t="s" s="2">
+      <c r="M126" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
@@ -15586,25 +15583,25 @@
         <v>40</v>
       </c>
       <c r="AE126" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AF126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG126" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK126" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="AF126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG126" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>40</v>
@@ -15615,7 +15612,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15641,13 +15638,13 @@
         <v>123</v>
       </c>
       <c r="K127" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L127" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="L127" t="s" s="2">
+      <c r="M127" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
@@ -15655,49 +15652,49 @@
       </c>
       <c r="P127" s="2"/>
       <c r="Q127" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="R127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE127" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="R127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE127" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>41</v>
@@ -15726,7 +15723,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -15752,16 +15749,16 @@
         <v>144</v>
       </c>
       <c r="K128" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L128" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="L128" t="s" s="2">
+      <c r="M128" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="M128" t="s" s="2">
+      <c r="N128" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>40</v>
@@ -15790,7 +15787,7 @@
       </c>
       <c r="X128" s="2"/>
       <c r="Y128" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>40</v>
@@ -15808,7 +15805,7 @@
         <v>40</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>41</v>
@@ -15823,13 +15820,13 @@
         <v>40</v>
       </c>
       <c r="AJ128" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AK128" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AK128" t="s" s="2">
+      <c r="AL128" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="AL128" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>40</v>

--- a/output/EventSummary/practitioner-ident-1.xlsx
+++ b/output/EventSummary/practitioner-ident-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4489" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4489" uniqueCount="443">
   <si>
     <t>Path</t>
   </si>
@@ -768,7 +768,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="AHPRA registration number"/&gt;</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="AHPRA Registration Number"/&gt;</t>
   </si>
   <si>
     <t>The namespace for the identifier value</t>
@@ -1250,7 +1250,7 @@
     <t>Details of registration with the Australian Health Practitioner Regulation Authority (AHPRA).</t>
   </si>
   <si>
-    <t>AHPRA registration number</t>
+    <t>AHPRA Registration Number</t>
   </si>
   <si>
     <t xml:space="preserve">inv-ahpra-qual-value-0:The AHPRA registration value shall start with 3 uppercase letters, followed by 10 digits. {value.matches('^[A-Z]{3}[0-9]{10}$')}
@@ -1291,6 +1291,9 @@
   </si>
   <si>
     <t>Practitioner.qualification.identifier.value</t>
+  </si>
+  <si>
+    <t>AHPRA registration number</t>
   </si>
   <si>
     <t>Practitioner.qualification.identifier.period</t>
@@ -14090,7 +14093,7 @@
         <v>123</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="L113" t="s" s="2">
         <v>186</v>
@@ -14175,7 +14178,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14284,7 +14287,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14421,10 +14424,10 @@
         <v>144</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -14504,7 +14507,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14613,7 +14616,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14724,7 +14727,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -14837,7 +14840,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14863,7 +14866,7 @@
         <v>123</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L120" t="s" s="2">
         <v>167</v>
@@ -15170,7 +15173,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15279,7 +15282,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15390,7 +15393,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15416,13 +15419,13 @@
         <v>123</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -15472,7 +15475,7 @@
         <v>40</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>41</v>
@@ -15481,7 +15484,7 @@
         <v>52</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>40</v>
@@ -15501,7 +15504,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15527,13 +15530,13 @@
         <v>108</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
@@ -15583,7 +15586,7 @@
         <v>40</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>41</v>
@@ -15601,7 +15604,7 @@
         <v>40</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>40</v>
@@ -15612,7 +15615,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15638,13 +15641,13 @@
         <v>123</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
@@ -15652,7 +15655,7 @@
       </c>
       <c r="P127" s="2"/>
       <c r="Q127" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="R127" t="s" s="2">
         <v>40</v>
@@ -15694,7 +15697,7 @@
         <v>40</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>41</v>
@@ -15723,7 +15726,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -15749,16 +15752,16 @@
         <v>144</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>40</v>
@@ -15787,7 +15790,7 @@
       </c>
       <c r="X128" s="2"/>
       <c r="Y128" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>40</v>
@@ -15805,7 +15808,7 @@
         <v>40</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>41</v>
@@ -15820,13 +15823,13 @@
         <v>40</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>40</v>

--- a/output/EventSummary/practitioner-ident-1.xlsx
+++ b/output/EventSummary/practitioner-ident-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4489" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4489" uniqueCount="441">
   <si>
     <t>Path</t>
   </si>
@@ -180,7 +180,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -199,7 +199,7 @@
     <t>Practitioner.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -215,7 +215,7 @@
     <t>Practitioner.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -235,7 +235,7 @@
     <t>Practitioner.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -267,7 +267,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -297,7 +297,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -323,7 +323,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -354,7 +354,7 @@
     <t>Practitioner.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -402,7 +402,7 @@
     <t>Practitioner.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -467,7 +467,7 @@
     <t>Practitioner.identifier.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -513,7 +513,7 @@
     <t>Practitioner.identifier.type.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
@@ -553,7 +553,7 @@
     <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="HPI-I"/&gt;</t>
+    <t>HPI-I</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
@@ -577,10 +577,10 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/hi/hpii/1.0"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri"/&gt;</t>
+    <t>http://ns.electronichealth.net.au/id/hi/hpii/1.0</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -607,7 +607,7 @@
     <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/STU3/extension-rendered-value.html).</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="123456"/&gt;</t>
+    <t>123456</t>
   </si>
   <si>
     <t>16</t>
@@ -628,7 +628,7 @@
     <t>Practitioner.identifier.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period {[]} {[]}
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
@@ -653,7 +653,7 @@
     <t>Practitioner.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -701,7 +701,7 @@
     <t>Local identifier type</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Prescriber Number"/&gt;</t>
+    <t>Prescriber Number</t>
   </si>
   <si>
     <t>Namespace for prescriber number</t>
@@ -710,7 +710,7 @@
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/medicare-prescriber-number"/&gt;</t>
+    <t>http://ns.electronichealth.net.au/id/medicare-prescriber-number</t>
   </si>
   <si>
     <t>Medicare Prescriber number</t>
@@ -732,13 +732,13 @@
     <t>Identifier type for CAE identifier</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Care Agency Employee Identifier"/&gt;</t>
+    <t>Care Agency Employee Identifier</t>
   </si>
   <si>
     <t>Namespace for CAE identifier</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/pcehr/caei/1.0"/&gt;</t>
+    <t>http://ns.electronichealth.net.au/id/pcehr/caei/1.0</t>
   </si>
   <si>
     <t>CAE identifier number</t>
@@ -768,13 +768,13 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="AHPRA Registration Number"/&gt;</t>
+    <t>AHPRA Registration Number</t>
   </si>
   <si>
     <t>The namespace for the identifier value</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org.au/id/ahpra-registration-number"/&gt;</t>
+    <t>http://hl7.org.au/id/ahpra-registration-number</t>
   </si>
   <si>
     <t>The value that is unique</t>
@@ -816,7 +816,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/v2/0203"/&gt;</t>
+    <t>http://hl7.org/fhir/v2/0203</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -861,7 +861,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="EI"/&gt;</t>
+    <t>EI</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -897,7 +897,7 @@
     <t>Practitioner.identifier.type.coding.userSelected</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean {[]} {[]}
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
@@ -920,9 +920,6 @@
   </si>
   <si>
     <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Employee Number"/&gt;</t>
   </si>
   <si>
     <t>Namespace for employee number</t>
@@ -951,7 +948,7 @@
     <t>Need to be able to mark a practitioner record as not to be used because it was created in error.</t>
   </si>
   <si>
-    <t>&lt;valueBoolean xmlns="http://hl7.org/fhir" value="true"/&gt;</t>
+    <t>true</t>
   </si>
   <si>
     <t>./statusCode</t>
@@ -963,7 +960,7 @@
     <t>Practitioner.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/humanname-dh-base-1]]} {[]}
+    <t xml:space="preserve">HumanName {http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/humanname-dh-base-1}
 </t>
   </si>
   <si>
@@ -999,7 +996,7 @@
     <t>Practitioner.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {[]} {[]}
+    <t xml:space="preserve">ContactPoint
 </t>
   </si>
   <si>
@@ -1029,7 +1026,7 @@
     <t>Practitioner.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {[]} {[]}
+    <t xml:space="preserve">Address
 </t>
   </si>
   <si>
@@ -1085,7 +1082,7 @@
     <t>Practitioner.birthDate</t>
   </si>
   <si>
-    <t xml:space="preserve">date {[]} {[]}
+    <t xml:space="preserve">date
 </t>
   </si>
   <si>
@@ -1110,7 +1107,7 @@
     <t>Practitioner.photo</t>
   </si>
   <si>
-    <t xml:space="preserve">Attachment {[]} {[]}
+    <t xml:space="preserve">Attachment
 </t>
   </si>
   <si>
@@ -1132,7 +1129,7 @@
     <t>Practitioner.qualification</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -1248,9 +1245,6 @@
   </si>
   <si>
     <t>Details of registration with the Australian Health Practitioner Regulation Authority (AHPRA).</t>
-  </si>
-  <si>
-    <t>AHPRA Registration Number</t>
   </si>
   <si>
     <t xml:space="preserve">inv-ahpra-qual-value-0:The AHPRA registration value shall start with 3 uppercase letters, followed by 10 digits. {value.matches('^[A-Z]{3}[0-9]{10}$')}
@@ -1380,7 +1374,7 @@
     <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="AHPRA"/&gt;</t>
+    <t>AHPRA</t>
   </si>
   <si>
     <t>Reference.display</t>
@@ -1463,67 +1457,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -1559,7 +1553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN128"/>
+  <dimension ref="A1:AM128"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1582,7 +1576,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="53.0234375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -10335,7 +10329,7 @@
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
-        <v>288</v>
+        <v>242</v>
       </c>
       <c r="R79" t="s" s="2">
         <v>40</v>
@@ -10432,7 +10426,7 @@
         <v>65</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>219</v>
@@ -10543,13 +10537,13 @@
         <v>123</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>186</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -10848,7 +10842,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10874,19 +10868,19 @@
         <v>280</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="N84" t="s" s="2">
+      <c r="O84" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
@@ -10932,7 +10926,7 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
@@ -10950,18 +10944,18 @@
         <v>40</v>
       </c>
       <c r="AK84" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM84" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>299</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10984,19 +10978,19 @@
         <v>53</v>
       </c>
       <c r="J85" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="K85" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="K85" t="s" s="2">
+      <c r="L85" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>40</v>
@@ -11045,7 +11039,7 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
@@ -11060,13 +11054,13 @@
         <v>40</v>
       </c>
       <c r="AJ85" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AK85" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AK85" t="s" s="2">
+      <c r="AL85" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>40</v>
@@ -11074,7 +11068,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11097,19 +11091,19 @@
         <v>53</v>
       </c>
       <c r="J86" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="K86" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="K86" t="s" s="2">
+      <c r="L86" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>40</v>
@@ -11158,7 +11152,7 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
@@ -11173,13 +11167,13 @@
         <v>40</v>
       </c>
       <c r="AJ86" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AK86" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AK86" t="s" s="2">
+      <c r="AL86" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>40</v>
@@ -11187,7 +11181,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11210,19 +11204,19 @@
         <v>53</v>
       </c>
       <c r="J87" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="K87" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="K87" t="s" s="2">
+      <c r="L87" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>40</v>
@@ -11271,7 +11265,7 @@
         <v>40</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>41</v>
@@ -11286,13 +11280,13 @@
         <v>40</v>
       </c>
       <c r="AJ87" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AK87" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AK87" t="s" s="2">
+      <c r="AL87" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>40</v>
@@ -11300,7 +11294,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11326,14 +11320,14 @@
         <v>71</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>40</v>
@@ -11361,49 +11355,49 @@
         <v>138</v>
       </c>
       <c r="X88" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Y88" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="Y88" t="s" s="2">
+      <c r="Z88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="Z88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
+      <c r="AK88" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AK88" t="s" s="2">
+      <c r="AL88" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>40</v>
@@ -11411,7 +11405,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11434,17 +11428,17 @@
         <v>53</v>
       </c>
       <c r="J89" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="K89" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="K89" t="s" s="2">
+      <c r="L89" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>40</v>
@@ -11493,7 +11487,7 @@
         <v>40</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>41</v>
@@ -11508,13 +11502,13 @@
         <v>40</v>
       </c>
       <c r="AJ89" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AK89" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AK89" t="s" s="2">
+      <c r="AL89" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>40</v>
@@ -11522,7 +11516,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11545,17 +11539,17 @@
         <v>40</v>
       </c>
       <c r="J90" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="K90" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="K90" t="s" s="2">
+      <c r="L90" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>40</v>
@@ -11604,7 +11598,7 @@
         <v>40</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
@@ -11622,10 +11616,10 @@
         <v>40</v>
       </c>
       <c r="AK90" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AL90" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>40</v>
@@ -11633,7 +11627,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11656,13 +11650,13 @@
         <v>40</v>
       </c>
       <c r="J91" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="K91" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="K91" t="s" s="2">
+      <c r="L91" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -11701,7 +11695,7 @@
         <v>40</v>
       </c>
       <c r="AA91" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AB91" s="2"/>
       <c r="AC91" t="s" s="2">
@@ -11711,7 +11705,7 @@
         <v>113</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>41</v>
@@ -11723,16 +11717,16 @@
         <v>40</v>
       </c>
       <c r="AI91" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AJ91" t="s" s="2">
+      <c r="AK91" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AK91" t="s" s="2">
+      <c r="AL91" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>40</v>
@@ -11740,7 +11734,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11849,7 +11843,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11960,11 +11954,11 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -11989,7 +11983,7 @@
         <v>104</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M94" t="s" s="2">
         <v>101</v>
@@ -12042,7 +12036,7 @@
         <v>40</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>41</v>
@@ -12071,7 +12065,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12097,14 +12091,14 @@
         <v>108</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>40</v>
@@ -12153,7 +12147,7 @@
         <v>40</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>41</v>
@@ -12171,7 +12165,7 @@
         <v>40</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>40</v>
@@ -12182,7 +12176,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12208,10 +12202,10 @@
         <v>144</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -12238,52 +12232,52 @@
         <v>40</v>
       </c>
       <c r="W96" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="X96" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="X96" t="s" s="2">
+      <c r="Y96" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="Y96" t="s" s="2">
+      <c r="Z96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AL96" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>40</v>
@@ -12291,7 +12285,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12317,14 +12311,14 @@
         <v>195</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>40</v>
@@ -12373,7 +12367,7 @@
         <v>40</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>41</v>
@@ -12391,10 +12385,10 @@
         <v>40</v>
       </c>
       <c r="AK97" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AL97" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>40</v>
@@ -12402,7 +12396,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12428,10 +12422,10 @@
         <v>203</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12482,7 +12476,7 @@
         <v>40</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>41</v>
@@ -12500,7 +12494,7 @@
         <v>40</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>40</v>
@@ -12511,7 +12505,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>231</v>
@@ -12536,13 +12530,13 @@
         <v>40</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -12593,7 +12587,7 @@
         <v>40</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>41</v>
@@ -12605,16 +12599,16 @@
         <v>40</v>
       </c>
       <c r="AI99" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AJ99" t="s" s="2">
+      <c r="AK99" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AK99" t="s" s="2">
+      <c r="AL99" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>40</v>
@@ -12622,7 +12616,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12731,7 +12725,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12842,11 +12836,11 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -12871,7 +12865,7 @@
         <v>104</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M102" t="s" s="2">
         <v>101</v>
@@ -12924,7 +12918,7 @@
         <v>40</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>41</v>
@@ -12953,7 +12947,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12979,14 +12973,14 @@
         <v>108</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>390</v>
+        <v>237</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>40</v>
@@ -13035,7 +13029,7 @@
         <v>40</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>41</v>
@@ -13047,13 +13041,13 @@
         <v>40</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>40</v>
@@ -13064,7 +13058,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13173,7 +13167,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13284,7 +13278,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13397,7 +13391,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13423,7 +13417,7 @@
         <v>144</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="L107" t="s" s="2">
         <v>146</v>
@@ -13510,7 +13504,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13619,7 +13613,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13730,7 +13724,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13843,7 +13837,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13956,7 +13950,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -13982,7 +13976,7 @@
         <v>65</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L112" t="s" s="2">
         <v>219</v>
@@ -14067,7 +14061,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14093,7 +14087,7 @@
         <v>123</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="L113" t="s" s="2">
         <v>186</v>
@@ -14178,7 +14172,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14287,7 +14281,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14398,7 +14392,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14424,10 +14418,10 @@
         <v>144</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -14454,52 +14448,52 @@
         <v>40</v>
       </c>
       <c r="W116" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="X116" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="X116" t="s" s="2">
+      <c r="Y116" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="Y116" t="s" s="2">
+      <c r="Z116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AL116" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AL116" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>40</v>
@@ -14507,7 +14501,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14616,7 +14610,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14727,7 +14721,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -14840,7 +14834,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14866,7 +14860,7 @@
         <v>123</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="L120" t="s" s="2">
         <v>167</v>
@@ -14953,7 +14947,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -14979,14 +14973,14 @@
         <v>195</v>
       </c>
       <c r="K121" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L121" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>40</v>
@@ -15035,7 +15029,7 @@
         <v>40</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>41</v>
@@ -15053,10 +15047,10 @@
         <v>40</v>
       </c>
       <c r="AK121" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AL121" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AL121" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>40</v>
@@ -15064,7 +15058,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15090,10 +15084,10 @@
         <v>203</v>
       </c>
       <c r="K122" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L122" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -15144,7 +15138,7 @@
         <v>40</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>41</v>
@@ -15162,7 +15156,7 @@
         <v>40</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>40</v>
@@ -15173,7 +15167,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15282,7 +15276,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15393,7 +15387,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15419,13 +15413,13 @@
         <v>123</v>
       </c>
       <c r="K125" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M125" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -15475,7 +15469,7 @@
         <v>40</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>41</v>
@@ -15484,7 +15478,7 @@
         <v>52</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>40</v>
@@ -15504,7 +15498,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15530,13 +15524,13 @@
         <v>108</v>
       </c>
       <c r="K126" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M126" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
@@ -15586,7 +15580,7 @@
         <v>40</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>41</v>
@@ -15604,7 +15598,7 @@
         <v>40</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>40</v>
@@ -15615,7 +15609,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15641,13 +15635,13 @@
         <v>123</v>
       </c>
       <c r="K127" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M127" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
@@ -15655,7 +15649,7 @@
       </c>
       <c r="P127" s="2"/>
       <c r="Q127" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="R127" t="s" s="2">
         <v>40</v>
@@ -15697,7 +15691,7 @@
         <v>40</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>41</v>
@@ -15726,7 +15720,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -15752,16 +15746,16 @@
         <v>144</v>
       </c>
       <c r="K128" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M128" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="L128" t="s" s="2">
+      <c r="N128" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>40</v>
@@ -15790,7 +15784,7 @@
       </c>
       <c r="X128" s="2"/>
       <c r="Y128" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>40</v>
@@ -15808,7 +15802,7 @@
         <v>40</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>41</v>
@@ -15823,13 +15817,13 @@
         <v>40</v>
       </c>
       <c r="AJ128" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AK128" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AL128" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="AK128" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AL128" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>40</v>

--- a/output/EventSummary/practitioner-ident-1.xlsx
+++ b/output/EventSummary/practitioner-ident-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4489" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4489" uniqueCount="443">
   <si>
     <t>Path</t>
   </si>
@@ -180,7 +180,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">id {[]} {[]}
 </t>
   </si>
   <si>
@@ -199,7 +199,7 @@
     <t>Practitioner.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta
+    <t xml:space="preserve">Meta {[]} {[]}
 </t>
   </si>
   <si>
@@ -215,7 +215,7 @@
     <t>Practitioner.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri
+    <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
@@ -235,7 +235,7 @@
     <t>Practitioner.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code
+    <t xml:space="preserve">code {[]} {[]}
 </t>
   </si>
   <si>
@@ -267,7 +267,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative
+    <t xml:space="preserve">Narrative {[]} {[]}
 </t>
   </si>
   <si>
@@ -297,7 +297,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource
+    <t xml:space="preserve">Resource {[]} {[]}
 </t>
   </si>
   <si>
@@ -323,7 +323,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
+    <t xml:space="preserve">Extension {[]} {[]}
 </t>
   </si>
   <si>
@@ -354,7 +354,7 @@
     <t>Practitioner.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier
+    <t xml:space="preserve">Identifier {[]} {[]}
 </t>
   </si>
   <si>
@@ -402,7 +402,7 @@
     <t>Practitioner.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">string {[]} {[]}
 </t>
   </si>
   <si>
@@ -467,7 +467,7 @@
     <t>Practitioner.identifier.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
 </t>
   </si>
   <si>
@@ -513,7 +513,7 @@
     <t>Practitioner.identifier.type.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
+    <t xml:space="preserve">Coding {[]} {[]}
 </t>
   </si>
   <si>
@@ -553,7 +553,7 @@
     <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
-    <t>HPI-I</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="HPI-I"/&gt;</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
@@ -577,10 +577,10 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://ns.electronichealth.net.au/id/hi/hpii/1.0</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/hi/hpii/1.0"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri"/&gt;</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -607,7 +607,7 @@
     <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/STU3/extension-rendered-value.html).</t>
   </si>
   <si>
-    <t>123456</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="123456"/&gt;</t>
   </si>
   <si>
     <t>16</t>
@@ -628,7 +628,7 @@
     <t>Practitioner.identifier.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
+    <t xml:space="preserve">Period {[]} {[]}
 </t>
   </si>
   <si>
@@ -653,7 +653,7 @@
     <t>Practitioner.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
 </t>
   </si>
   <si>
@@ -701,7 +701,7 @@
     <t>Local identifier type</t>
   </si>
   <si>
-    <t>Prescriber Number</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Prescriber Number"/&gt;</t>
   </si>
   <si>
     <t>Namespace for prescriber number</t>
@@ -710,7 +710,7 @@
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
-    <t>http://ns.electronichealth.net.au/id/medicare-prescriber-number</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/medicare-prescriber-number"/&gt;</t>
   </si>
   <si>
     <t>Medicare Prescriber number</t>
@@ -732,13 +732,13 @@
     <t>Identifier type for CAE identifier</t>
   </si>
   <si>
-    <t>Care Agency Employee Identifier</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Care Agency Employee Identifier"/&gt;</t>
   </si>
   <si>
     <t>Namespace for CAE identifier</t>
   </si>
   <si>
-    <t>http://ns.electronichealth.net.au/id/pcehr/caei/1.0</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/pcehr/caei/1.0"/&gt;</t>
   </si>
   <si>
     <t>CAE identifier number</t>
@@ -768,13 +768,13 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>AHPRA Registration Number</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="AHPRA Registration Number"/&gt;</t>
   </si>
   <si>
     <t>The namespace for the identifier value</t>
   </si>
   <si>
-    <t>http://hl7.org.au/id/ahpra-registration-number</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org.au/id/ahpra-registration-number"/&gt;</t>
   </si>
   <si>
     <t>The value that is unique</t>
@@ -816,7 +816,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/v2/0203</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/v2/0203"/&gt;</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -861,7 +861,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>EI</t>
+    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="EI"/&gt;</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -897,7 +897,7 @@
     <t>Practitioner.identifier.type.coding.userSelected</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean
+    <t xml:space="preserve">boolean {[]} {[]}
 </t>
   </si>
   <si>
@@ -920,6 +920,9 @@
   </si>
   <si>
     <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Employee Number"/&gt;</t>
   </si>
   <si>
     <t>Namespace for employee number</t>
@@ -948,7 +951,7 @@
     <t>Need to be able to mark a practitioner record as not to be used because it was created in error.</t>
   </si>
   <si>
-    <t>true</t>
+    <t>&lt;valueBoolean xmlns="http://hl7.org/fhir" value="true"/&gt;</t>
   </si>
   <si>
     <t>./statusCode</t>
@@ -960,7 +963,7 @@
     <t>Practitioner.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/humanname-dh-base-1}
+    <t xml:space="preserve">HumanName {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/humanname-dh-base-1]]} {[]}
 </t>
   </si>
   <si>
@@ -996,7 +999,7 @@
     <t>Practitioner.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint
+    <t xml:space="preserve">ContactPoint {[]} {[]}
 </t>
   </si>
   <si>
@@ -1026,7 +1029,7 @@
     <t>Practitioner.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address
+    <t xml:space="preserve">Address {[]} {[]}
 </t>
   </si>
   <si>
@@ -1082,7 +1085,7 @@
     <t>Practitioner.birthDate</t>
   </si>
   <si>
-    <t xml:space="preserve">date
+    <t xml:space="preserve">date {[]} {[]}
 </t>
   </si>
   <si>
@@ -1107,7 +1110,7 @@
     <t>Practitioner.photo</t>
   </si>
   <si>
-    <t xml:space="preserve">Attachment
+    <t xml:space="preserve">Attachment {[]} {[]}
 </t>
   </si>
   <si>
@@ -1129,7 +1132,7 @@
     <t>Practitioner.qualification</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement
+    <t xml:space="preserve">BackboneElement {[]} {[]}
 </t>
   </si>
   <si>
@@ -1245,6 +1248,9 @@
   </si>
   <si>
     <t>Details of registration with the Australian Health Practitioner Regulation Authority (AHPRA).</t>
+  </si>
+  <si>
+    <t>AHPRA Registration Number</t>
   </si>
   <si>
     <t xml:space="preserve">inv-ahpra-qual-value-0:The AHPRA registration value shall start with 3 uppercase letters, followed by 10 digits. {value.matches('^[A-Z]{3}[0-9]{10}$')}
@@ -1374,7 +1380,7 @@
     <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
   </si>
   <si>
-    <t>AHPRA</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="AHPRA"/&gt;</t>
   </si>
   <si>
     <t>Reference.display</t>
@@ -1457,67 +1463,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
   </borders>
@@ -1553,7 +1559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM128"/>
+  <dimension ref="A1:AN128"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1576,7 +1582,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="53.0234375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -10329,7 +10335,7 @@
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
-        <v>242</v>
+        <v>288</v>
       </c>
       <c r="R79" t="s" s="2">
         <v>40</v>
@@ -10426,7 +10432,7 @@
         <v>65</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>219</v>
@@ -10537,13 +10543,13 @@
         <v>123</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>186</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -10842,7 +10848,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10868,19 +10874,19 @@
         <v>280</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
@@ -10926,7 +10932,7 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
@@ -10944,18 +10950,18 @@
         <v>40</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10978,19 +10984,19 @@
         <v>53</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>40</v>
@@ -11039,7 +11045,7 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
@@ -11054,13 +11060,13 @@
         <v>40</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>40</v>
@@ -11068,7 +11074,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11091,19 +11097,19 @@
         <v>53</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>40</v>
@@ -11152,7 +11158,7 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
@@ -11167,13 +11173,13 @@
         <v>40</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>40</v>
@@ -11181,7 +11187,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11204,19 +11210,19 @@
         <v>53</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>40</v>
@@ -11265,7 +11271,7 @@
         <v>40</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>41</v>
@@ -11280,13 +11286,13 @@
         <v>40</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>40</v>
@@ -11294,7 +11300,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11320,14 +11326,14 @@
         <v>71</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>40</v>
@@ -11355,10 +11361,10 @@
         <v>138</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>40</v>
@@ -11376,7 +11382,7 @@
         <v>40</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>41</v>
@@ -11391,13 +11397,13 @@
         <v>40</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>40</v>
@@ -11405,7 +11411,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11428,17 +11434,17 @@
         <v>53</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>40</v>
@@ -11487,7 +11493,7 @@
         <v>40</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>41</v>
@@ -11502,13 +11508,13 @@
         <v>40</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>40</v>
@@ -11516,7 +11522,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11539,17 +11545,17 @@
         <v>40</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>40</v>
@@ -11598,7 +11604,7 @@
         <v>40</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
@@ -11616,10 +11622,10 @@
         <v>40</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>40</v>
@@ -11627,7 +11633,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11650,13 +11656,13 @@
         <v>40</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -11695,7 +11701,7 @@
         <v>40</v>
       </c>
       <c r="AA91" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AB91" s="2"/>
       <c r="AC91" t="s" s="2">
@@ -11705,7 +11711,7 @@
         <v>113</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>41</v>
@@ -11717,16 +11723,16 @@
         <v>40</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>40</v>
@@ -11734,7 +11740,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11843,7 +11849,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11954,11 +11960,11 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -11983,7 +11989,7 @@
         <v>104</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M94" t="s" s="2">
         <v>101</v>
@@ -12036,7 +12042,7 @@
         <v>40</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>41</v>
@@ -12065,7 +12071,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12091,14 +12097,14 @@
         <v>108</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>40</v>
@@ -12147,7 +12153,7 @@
         <v>40</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>41</v>
@@ -12165,7 +12171,7 @@
         <v>40</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>40</v>
@@ -12176,7 +12182,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12202,10 +12208,10 @@
         <v>144</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -12232,13 +12238,13 @@
         <v>40</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>40</v>
@@ -12256,7 +12262,7 @@
         <v>40</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>52</v>
@@ -12274,10 +12280,10 @@
         <v>40</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>40</v>
@@ -12285,7 +12291,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12311,14 +12317,14 @@
         <v>195</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>40</v>
@@ -12367,7 +12373,7 @@
         <v>40</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>41</v>
@@ -12385,10 +12391,10 @@
         <v>40</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>40</v>
@@ -12396,7 +12402,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12422,10 +12428,10 @@
         <v>203</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12476,7 +12482,7 @@
         <v>40</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>41</v>
@@ -12494,7 +12500,7 @@
         <v>40</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>40</v>
@@ -12505,7 +12511,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>231</v>
@@ -12530,13 +12536,13 @@
         <v>40</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -12587,7 +12593,7 @@
         <v>40</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>41</v>
@@ -12599,16 +12605,16 @@
         <v>40</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>40</v>
@@ -12616,7 +12622,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12725,7 +12731,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12836,11 +12842,11 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -12865,7 +12871,7 @@
         <v>104</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M102" t="s" s="2">
         <v>101</v>
@@ -12918,7 +12924,7 @@
         <v>40</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>41</v>
@@ -12947,7 +12953,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12973,14 +12979,14 @@
         <v>108</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>237</v>
+        <v>390</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>40</v>
@@ -13029,7 +13035,7 @@
         <v>40</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>41</v>
@@ -13041,13 +13047,13 @@
         <v>40</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>40</v>
@@ -13058,7 +13064,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13167,7 +13173,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13278,7 +13284,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13391,7 +13397,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13417,7 +13423,7 @@
         <v>144</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L107" t="s" s="2">
         <v>146</v>
@@ -13504,7 +13510,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13613,7 +13619,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13724,7 +13730,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13837,7 +13843,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13950,7 +13956,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -13976,7 +13982,7 @@
         <v>65</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L112" t="s" s="2">
         <v>219</v>
@@ -14061,7 +14067,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14087,7 +14093,7 @@
         <v>123</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L113" t="s" s="2">
         <v>186</v>
@@ -14172,7 +14178,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14281,7 +14287,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14392,7 +14398,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14418,10 +14424,10 @@
         <v>144</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -14448,13 +14454,13 @@
         <v>40</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>40</v>
@@ -14472,7 +14478,7 @@
         <v>40</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>52</v>
@@ -14490,10 +14496,10 @@
         <v>40</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>40</v>
@@ -14501,7 +14507,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14610,7 +14616,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14721,7 +14727,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -14834,7 +14840,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14860,7 +14866,7 @@
         <v>123</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L120" t="s" s="2">
         <v>167</v>
@@ -14947,7 +14953,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -14973,14 +14979,14 @@
         <v>195</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>40</v>
@@ -15029,7 +15035,7 @@
         <v>40</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>41</v>
@@ -15047,10 +15053,10 @@
         <v>40</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>40</v>
@@ -15058,7 +15064,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15084,10 +15090,10 @@
         <v>203</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -15138,7 +15144,7 @@
         <v>40</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>41</v>
@@ -15156,7 +15162,7 @@
         <v>40</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>40</v>
@@ -15167,7 +15173,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15276,7 +15282,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15387,7 +15393,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15413,13 +15419,13 @@
         <v>123</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -15469,7 +15475,7 @@
         <v>40</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>41</v>
@@ -15478,7 +15484,7 @@
         <v>52</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>40</v>
@@ -15498,7 +15504,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15524,13 +15530,13 @@
         <v>108</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
@@ -15580,7 +15586,7 @@
         <v>40</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>41</v>
@@ -15598,7 +15604,7 @@
         <v>40</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>40</v>
@@ -15609,7 +15615,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15635,13 +15641,13 @@
         <v>123</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
@@ -15649,7 +15655,7 @@
       </c>
       <c r="P127" s="2"/>
       <c r="Q127" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="R127" t="s" s="2">
         <v>40</v>
@@ -15691,7 +15697,7 @@
         <v>40</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>41</v>
@@ -15720,7 +15726,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -15746,16 +15752,16 @@
         <v>144</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>40</v>
@@ -15784,7 +15790,7 @@
       </c>
       <c r="X128" s="2"/>
       <c r="Y128" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>40</v>
@@ -15802,7 +15808,7 @@
         <v>40</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>41</v>
@@ -15817,13 +15823,13 @@
         <v>40</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>40</v>

--- a/output/EventSummary/practitioner-ident-1.xlsx
+++ b/output/EventSummary/practitioner-ident-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4489" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4489" uniqueCount="441">
   <si>
     <t>Path</t>
   </si>
@@ -180,7 +180,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -199,7 +199,7 @@
     <t>Practitioner.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -215,7 +215,7 @@
     <t>Practitioner.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -235,7 +235,7 @@
     <t>Practitioner.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -267,7 +267,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -297,7 +297,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -323,7 +323,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -354,7 +354,7 @@
     <t>Practitioner.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -402,7 +402,7 @@
     <t>Practitioner.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -467,7 +467,7 @@
     <t>Practitioner.identifier.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -513,7 +513,7 @@
     <t>Practitioner.identifier.type.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
@@ -553,7 +553,7 @@
     <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="HPI-I"/&gt;</t>
+    <t>HPI-I</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
@@ -577,10 +577,10 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/hi/hpii/1.0"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri"/&gt;</t>
+    <t>http://ns.electronichealth.net.au/id/hi/hpii/1.0</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -607,7 +607,7 @@
     <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/STU3/extension-rendered-value.html).</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="123456"/&gt;</t>
+    <t>123456</t>
   </si>
   <si>
     <t>16</t>
@@ -628,7 +628,7 @@
     <t>Practitioner.identifier.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period {[]} {[]}
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
@@ -653,7 +653,7 @@
     <t>Practitioner.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -701,7 +701,7 @@
     <t>Local identifier type</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Prescriber Number"/&gt;</t>
+    <t>Prescriber Number</t>
   </si>
   <si>
     <t>Namespace for prescriber number</t>
@@ -710,7 +710,7 @@
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/medicare-prescriber-number"/&gt;</t>
+    <t>http://ns.electronichealth.net.au/id/medicare-prescriber-number</t>
   </si>
   <si>
     <t>Medicare Prescriber number</t>
@@ -732,13 +732,13 @@
     <t>Identifier type for CAE identifier</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Care Agency Employee Identifier"/&gt;</t>
+    <t>Care Agency Employee Identifier</t>
   </si>
   <si>
     <t>Namespace for CAE identifier</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/pcehr/caei/1.0"/&gt;</t>
+    <t>http://ns.electronichealth.net.au/id/pcehr/caei/1.0</t>
   </si>
   <si>
     <t>CAE identifier number</t>
@@ -768,13 +768,13 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="AHPRA Registration Number"/&gt;</t>
+    <t>AHPRA Registration Number</t>
   </si>
   <si>
     <t>The namespace for the identifier value</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org.au/id/ahpra-registration-number"/&gt;</t>
+    <t>http://hl7.org.au/id/ahpra-registration-number</t>
   </si>
   <si>
     <t>The value that is unique</t>
@@ -816,7 +816,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/v2/0203"/&gt;</t>
+    <t>http://hl7.org/fhir/v2/0203</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -861,7 +861,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="EI"/&gt;</t>
+    <t>EI</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -897,7 +897,7 @@
     <t>Practitioner.identifier.type.coding.userSelected</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean {[]} {[]}
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
@@ -922,16 +922,13 @@
     <t>CD.codingRationale</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Employee Number"/&gt;</t>
-  </si>
-  <si>
     <t>Namespace for employee number</t>
   </si>
   <si>
     <t>Employee number</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](https://build.fhir.org/ig/hl7au/au-fhir-base/extension-rendered-value.html).</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](https://build.fhir.org/ig/hl7au/au-fhir-base-stu3/extension-rendered-value.html).</t>
   </si>
   <si>
     <t>Practitioner.active</t>
@@ -951,7 +948,7 @@
     <t>Need to be able to mark a practitioner record as not to be used because it was created in error.</t>
   </si>
   <si>
-    <t>&lt;valueBoolean xmlns="http://hl7.org/fhir" value="true"/&gt;</t>
+    <t>true</t>
   </si>
   <si>
     <t>./statusCode</t>
@@ -963,7 +960,7 @@
     <t>Practitioner.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/humanname-dh-base-1]]} {[]}
+    <t xml:space="preserve">HumanName {http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/humanname-dh-base-1}
 </t>
   </si>
   <si>
@@ -999,7 +996,7 @@
     <t>Practitioner.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {[]} {[]}
+    <t xml:space="preserve">ContactPoint
 </t>
   </si>
   <si>
@@ -1029,7 +1026,7 @@
     <t>Practitioner.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {[]} {[]}
+    <t xml:space="preserve">Address
 </t>
   </si>
   <si>
@@ -1085,7 +1082,7 @@
     <t>Practitioner.birthDate</t>
   </si>
   <si>
-    <t xml:space="preserve">date {[]} {[]}
+    <t xml:space="preserve">date
 </t>
   </si>
   <si>
@@ -1110,7 +1107,7 @@
     <t>Practitioner.photo</t>
   </si>
   <si>
-    <t xml:space="preserve">Attachment {[]} {[]}
+    <t xml:space="preserve">Attachment
 </t>
   </si>
   <si>
@@ -1132,7 +1129,7 @@
     <t>Practitioner.qualification</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -1248,9 +1245,6 @@
   </si>
   <si>
     <t>Details of registration with the Australian Health Practitioner Regulation Authority (AHPRA).</t>
-  </si>
-  <si>
-    <t>AHPRA Registration Number</t>
   </si>
   <si>
     <t xml:space="preserve">inv-ahpra-qual-value-0:The AHPRA registration value shall start with 3 uppercase letters, followed by 10 digits. {value.matches('^[A-Z]{3}[0-9]{10}$')}
@@ -1380,7 +1374,7 @@
     <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="AHPRA"/&gt;</t>
+    <t>AHPRA</t>
   </si>
   <si>
     <t>Reference.display</t>
@@ -1463,67 +1457,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -1559,7 +1553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN128"/>
+  <dimension ref="A1:AM128"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1582,7 +1576,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="53.0234375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -10335,7 +10329,7 @@
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
-        <v>288</v>
+        <v>242</v>
       </c>
       <c r="R79" t="s" s="2">
         <v>40</v>
@@ -10432,7 +10426,7 @@
         <v>65</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>219</v>
@@ -10543,13 +10537,13 @@
         <v>123</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>186</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -10848,7 +10842,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10874,19 +10868,19 @@
         <v>280</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="N84" t="s" s="2">
+      <c r="O84" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
@@ -10932,7 +10926,7 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
@@ -10950,18 +10944,18 @@
         <v>40</v>
       </c>
       <c r="AK84" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM84" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>299</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10984,19 +10978,19 @@
         <v>53</v>
       </c>
       <c r="J85" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="K85" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="K85" t="s" s="2">
+      <c r="L85" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>40</v>
@@ -11045,7 +11039,7 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
@@ -11060,13 +11054,13 @@
         <v>40</v>
       </c>
       <c r="AJ85" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AK85" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AK85" t="s" s="2">
+      <c r="AL85" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>40</v>
@@ -11074,7 +11068,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11097,19 +11091,19 @@
         <v>53</v>
       </c>
       <c r="J86" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="K86" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="K86" t="s" s="2">
+      <c r="L86" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>40</v>
@@ -11158,7 +11152,7 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
@@ -11173,13 +11167,13 @@
         <v>40</v>
       </c>
       <c r="AJ86" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AK86" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AK86" t="s" s="2">
+      <c r="AL86" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>40</v>
@@ -11187,7 +11181,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11210,19 +11204,19 @@
         <v>53</v>
       </c>
       <c r="J87" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="K87" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="K87" t="s" s="2">
+      <c r="L87" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>40</v>
@@ -11271,7 +11265,7 @@
         <v>40</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>41</v>
@@ -11286,13 +11280,13 @@
         <v>40</v>
       </c>
       <c r="AJ87" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AK87" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AK87" t="s" s="2">
+      <c r="AL87" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>40</v>
@@ -11300,7 +11294,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11326,14 +11320,14 @@
         <v>71</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>40</v>
@@ -11361,49 +11355,49 @@
         <v>138</v>
       </c>
       <c r="X88" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Y88" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="Y88" t="s" s="2">
+      <c r="Z88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="Z88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
+      <c r="AK88" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AK88" t="s" s="2">
+      <c r="AL88" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>40</v>
@@ -11411,7 +11405,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11434,17 +11428,17 @@
         <v>53</v>
       </c>
       <c r="J89" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="K89" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="K89" t="s" s="2">
+      <c r="L89" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>40</v>
@@ -11493,7 +11487,7 @@
         <v>40</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>41</v>
@@ -11508,13 +11502,13 @@
         <v>40</v>
       </c>
       <c r="AJ89" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AK89" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AK89" t="s" s="2">
+      <c r="AL89" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>40</v>
@@ -11522,7 +11516,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11545,17 +11539,17 @@
         <v>40</v>
       </c>
       <c r="J90" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="K90" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="K90" t="s" s="2">
+      <c r="L90" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>40</v>
@@ -11604,7 +11598,7 @@
         <v>40</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
@@ -11622,10 +11616,10 @@
         <v>40</v>
       </c>
       <c r="AK90" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AL90" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>40</v>
@@ -11633,7 +11627,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11656,13 +11650,13 @@
         <v>40</v>
       </c>
       <c r="J91" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="K91" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="K91" t="s" s="2">
+      <c r="L91" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -11701,7 +11695,7 @@
         <v>40</v>
       </c>
       <c r="AA91" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AB91" s="2"/>
       <c r="AC91" t="s" s="2">
@@ -11711,7 +11705,7 @@
         <v>113</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>41</v>
@@ -11723,16 +11717,16 @@
         <v>40</v>
       </c>
       <c r="AI91" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AJ91" t="s" s="2">
+      <c r="AK91" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AK91" t="s" s="2">
+      <c r="AL91" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>40</v>
@@ -11740,7 +11734,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11849,7 +11843,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11960,11 +11954,11 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -11989,7 +11983,7 @@
         <v>104</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M94" t="s" s="2">
         <v>101</v>
@@ -12042,7 +12036,7 @@
         <v>40</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>41</v>
@@ -12071,7 +12065,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12097,14 +12091,14 @@
         <v>108</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>40</v>
@@ -12153,7 +12147,7 @@
         <v>40</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>41</v>
@@ -12171,7 +12165,7 @@
         <v>40</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>40</v>
@@ -12182,7 +12176,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12208,10 +12202,10 @@
         <v>144</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -12238,52 +12232,52 @@
         <v>40</v>
       </c>
       <c r="W96" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="X96" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="X96" t="s" s="2">
+      <c r="Y96" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="Y96" t="s" s="2">
+      <c r="Z96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AL96" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>40</v>
@@ -12291,7 +12285,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12317,14 +12311,14 @@
         <v>195</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>40</v>
@@ -12373,7 +12367,7 @@
         <v>40</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>41</v>
@@ -12391,10 +12385,10 @@
         <v>40</v>
       </c>
       <c r="AK97" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AL97" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>40</v>
@@ -12402,7 +12396,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12428,10 +12422,10 @@
         <v>203</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12482,7 +12476,7 @@
         <v>40</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>41</v>
@@ -12500,7 +12494,7 @@
         <v>40</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>40</v>
@@ -12511,7 +12505,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>231</v>
@@ -12536,13 +12530,13 @@
         <v>40</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -12593,7 +12587,7 @@
         <v>40</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>41</v>
@@ -12605,16 +12599,16 @@
         <v>40</v>
       </c>
       <c r="AI99" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AJ99" t="s" s="2">
+      <c r="AK99" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AK99" t="s" s="2">
+      <c r="AL99" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>40</v>
@@ -12622,7 +12616,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12731,7 +12725,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12842,11 +12836,11 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -12871,7 +12865,7 @@
         <v>104</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M102" t="s" s="2">
         <v>101</v>
@@ -12924,7 +12918,7 @@
         <v>40</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>41</v>
@@ -12953,7 +12947,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12979,14 +12973,14 @@
         <v>108</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>390</v>
+        <v>237</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>40</v>
@@ -13035,7 +13029,7 @@
         <v>40</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>41</v>
@@ -13047,13 +13041,13 @@
         <v>40</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>40</v>
@@ -13064,7 +13058,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13173,7 +13167,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13284,7 +13278,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13397,7 +13391,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13423,7 +13417,7 @@
         <v>144</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="L107" t="s" s="2">
         <v>146</v>
@@ -13510,7 +13504,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13619,7 +13613,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13730,7 +13724,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13843,7 +13837,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13956,7 +13950,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -13982,7 +13976,7 @@
         <v>65</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L112" t="s" s="2">
         <v>219</v>
@@ -14067,7 +14061,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14093,7 +14087,7 @@
         <v>123</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="L113" t="s" s="2">
         <v>186</v>
@@ -14178,7 +14172,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14287,7 +14281,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14398,7 +14392,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14424,10 +14418,10 @@
         <v>144</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -14454,52 +14448,52 @@
         <v>40</v>
       </c>
       <c r="W116" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="X116" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="X116" t="s" s="2">
+      <c r="Y116" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="Y116" t="s" s="2">
+      <c r="Z116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AL116" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AL116" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>40</v>
@@ -14507,7 +14501,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14616,7 +14610,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14727,7 +14721,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -14840,7 +14834,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14866,7 +14860,7 @@
         <v>123</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="L120" t="s" s="2">
         <v>167</v>
@@ -14953,7 +14947,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -14979,14 +14973,14 @@
         <v>195</v>
       </c>
       <c r="K121" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L121" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>40</v>
@@ -15035,7 +15029,7 @@
         <v>40</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>41</v>
@@ -15053,10 +15047,10 @@
         <v>40</v>
       </c>
       <c r="AK121" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AL121" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AL121" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>40</v>
@@ -15064,7 +15058,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15090,10 +15084,10 @@
         <v>203</v>
       </c>
       <c r="K122" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L122" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -15144,7 +15138,7 @@
         <v>40</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>41</v>
@@ -15162,7 +15156,7 @@
         <v>40</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>40</v>
@@ -15173,7 +15167,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15282,7 +15276,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15393,7 +15387,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15419,13 +15413,13 @@
         <v>123</v>
       </c>
       <c r="K125" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M125" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -15475,7 +15469,7 @@
         <v>40</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>41</v>
@@ -15484,7 +15478,7 @@
         <v>52</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>40</v>
@@ -15504,7 +15498,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15530,13 +15524,13 @@
         <v>108</v>
       </c>
       <c r="K126" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M126" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
@@ -15586,7 +15580,7 @@
         <v>40</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>41</v>
@@ -15604,7 +15598,7 @@
         <v>40</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>40</v>
@@ -15615,7 +15609,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15641,13 +15635,13 @@
         <v>123</v>
       </c>
       <c r="K127" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M127" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
@@ -15655,7 +15649,7 @@
       </c>
       <c r="P127" s="2"/>
       <c r="Q127" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="R127" t="s" s="2">
         <v>40</v>
@@ -15697,7 +15691,7 @@
         <v>40</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>41</v>
@@ -15726,7 +15720,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -15752,16 +15746,16 @@
         <v>144</v>
       </c>
       <c r="K128" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M128" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="L128" t="s" s="2">
+      <c r="N128" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>40</v>
@@ -15790,7 +15784,7 @@
       </c>
       <c r="X128" s="2"/>
       <c r="Y128" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>40</v>
@@ -15808,7 +15802,7 @@
         <v>40</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>41</v>
@@ -15823,13 +15817,13 @@
         <v>40</v>
       </c>
       <c r="AJ128" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AK128" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AL128" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="AK128" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AL128" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>40</v>

--- a/output/EventSummary/practitioner-ident-1.xlsx
+++ b/output/EventSummary/practitioner-ident-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4489" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4489" uniqueCount="443">
   <si>
     <t>Path</t>
   </si>
@@ -787,6 +787,14 @@
   </si>
   <si>
     <t>Employee number type</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://hl7.org/fhir/v2/0203"/&gt;
+    &lt;code value="EI"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
@@ -1143,108 +1151,112 @@
 </t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+inv-dh-prac-01:The issuer organisation shall conform to Base Organization {issuer.reference.resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1')}</t>
+  </si>
+  <si>
+    <t>CER?</t>
+  </si>
+  <si>
+    <t>.playingEntity.playingRole[classCode=QUAL].code</t>
+  </si>
+  <si>
+    <t>./Qualifications</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.identifier</t>
+  </si>
+  <si>
+    <t>An identifier for this qualification for the practitioner</t>
+  </si>
+  <si>
+    <t>An identifier that applies to this person's qualification in this role.</t>
+  </si>
+  <si>
+    <t>Often, specific identities are assigned for the qualification.</t>
+  </si>
+  <si>
+    <t>.playingEntity.playingRole[classCode=QUAL].id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.code</t>
+  </si>
+  <si>
+    <t>Coded representation of the qualification</t>
+  </si>
+  <si>
+    <t>Coded representation of the qualification.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Specific qualification the practitioner has to provide a service</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/v2-2.7-0360</t>
+  </si>
+  <si>
+    <t>./Qualifications.Value</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.period</t>
+  </si>
+  <si>
+    <t>Period during which the qualification is valid</t>
+  </si>
+  <si>
+    <t>Period during which the qualification is valid.</t>
+  </si>
+  <si>
+    <t>Qualifications are often for a limited period of time, and can be revoked.</t>
+  </si>
+  <si>
+    <t>.playingEntity.playingRole[classCode=QUAL].effectiveTime</t>
+  </si>
+  <si>
+    <t>./Qualifications.StartDate and ./Qualifications.EndDate</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.issuer</t>
+  </si>
+  <si>
+    <t>Organization that regulates and issues the qualification</t>
+  </si>
+  <si>
+    <t>Organization that regulates and issues the qualification.</t>
+  </si>
+  <si>
+    <t>.playingEntity.playingRole[classCode=QUAL].scoper</t>
+  </si>
+  <si>
+    <t>Australian Health Practitioner Regulation Agency (AHPRA) qualification details</t>
+  </si>
+  <si>
+    <t>Details of registration with the Australian Health Practitioner Regulation Authority (AHPRA).</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>CER?</t>
-  </si>
-  <si>
-    <t>.playingEntity.playingRole[classCode=QUAL].code</t>
-  </si>
-  <si>
-    <t>./Qualifications</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification.identifier</t>
-  </si>
-  <si>
-    <t>An identifier for this qualification for the practitioner</t>
-  </si>
-  <si>
-    <t>An identifier that applies to this person's qualification in this role.</t>
-  </si>
-  <si>
-    <t>Often, specific identities are assigned for the qualification.</t>
-  </si>
-  <si>
-    <t>.playingEntity.playingRole[classCode=QUAL].id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification.code</t>
-  </si>
-  <si>
-    <t>Coded representation of the qualification</t>
-  </si>
-  <si>
-    <t>Coded representation of the qualification.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Specific qualification the practitioner has to provide a service</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/v2-2.7-0360</t>
-  </si>
-  <si>
-    <t>./Qualifications.Value</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification.period</t>
-  </si>
-  <si>
-    <t>Period during which the qualification is valid</t>
-  </si>
-  <si>
-    <t>Period during which the qualification is valid.</t>
-  </si>
-  <si>
-    <t>Qualifications are often for a limited period of time, and can be revoked.</t>
-  </si>
-  <si>
-    <t>.playingEntity.playingRole[classCode=QUAL].effectiveTime</t>
-  </si>
-  <si>
-    <t>./Qualifications.StartDate and ./Qualifications.EndDate</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification.issuer</t>
-  </si>
-  <si>
-    <t>Organization that regulates and issues the qualification</t>
-  </si>
-  <si>
-    <t>Organization that regulates and issues the qualification.</t>
-  </si>
-  <si>
-    <t>.playingEntity.playingRole[classCode=QUAL].scoper</t>
-  </si>
-  <si>
-    <t>Australian Health Practitioner Regulation Agency (AHPRA) qualification details</t>
-  </si>
-  <si>
-    <t>Details of registration with the Australian Health Practitioner Regulation Authority (AHPRA).</t>
   </si>
   <si>
     <t xml:space="preserve">inv-ahpra-qual-value-0:The AHPRA registration value shall start with 3 uppercase letters, followed by 10 digits. {value.matches('^[A-Z]{3}[0-9]{10}$')}
@@ -9109,7 +9121,7 @@
         <v>40</v>
       </c>
       <c r="R68" t="s" s="2">
-        <v>40</v>
+        <v>244</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>40</v>
@@ -9127,10 +9139,10 @@
         <v>75</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>40</v>
@@ -9508,7 +9520,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9617,7 +9629,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9728,7 +9740,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9754,23 +9766,23 @@
         <v>65</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R74" t="s" s="2">
         <v>40</v>
@@ -9812,7 +9824,7 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -9827,10 +9839,10 @@
         <v>40</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>40</v>
@@ -9841,7 +9853,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9867,13 +9879,13 @@
         <v>123</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -9923,7 +9935,7 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -9938,10 +9950,10 @@
         <v>40</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>40</v>
@@ -9952,7 +9964,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9978,21 +9990,21 @@
         <v>71</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="R76" t="s" s="2">
         <v>40</v>
@@ -10034,7 +10046,7 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -10049,10 +10061,10 @@
         <v>40</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>40</v>
@@ -10063,7 +10075,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10089,14 +10101,14 @@
         <v>123</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>40</v>
@@ -10145,7 +10157,7 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -10160,10 +10172,10 @@
         <v>40</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>40</v>
@@ -10174,7 +10186,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10197,19 +10209,19 @@
         <v>53</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>40</v>
@@ -10258,7 +10270,7 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -10273,10 +10285,10 @@
         <v>40</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>40</v>
@@ -10295,7 +10307,7 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>52</v>
@@ -10329,7 +10341,7 @@
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
-        <v>242</v>
+        <v>40</v>
       </c>
       <c r="R79" t="s" s="2">
         <v>40</v>
@@ -10426,7 +10438,7 @@
         <v>65</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>219</v>
@@ -10537,13 +10549,13 @@
         <v>123</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>186</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -10842,7 +10854,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10865,22 +10877,22 @@
         <v>53</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
@@ -10926,7 +10938,7 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
@@ -10944,18 +10956,18 @@
         <v>40</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10978,19 +10990,19 @@
         <v>53</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>40</v>
@@ -11039,7 +11051,7 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
@@ -11054,13 +11066,13 @@
         <v>40</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>40</v>
@@ -11068,7 +11080,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11091,19 +11103,19 @@
         <v>53</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>40</v>
@@ -11152,7 +11164,7 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
@@ -11167,13 +11179,13 @@
         <v>40</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>40</v>
@@ -11181,7 +11193,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11204,19 +11216,19 @@
         <v>53</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>40</v>
@@ -11265,7 +11277,7 @@
         <v>40</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>41</v>
@@ -11280,13 +11292,13 @@
         <v>40</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>40</v>
@@ -11294,7 +11306,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11320,14 +11332,14 @@
         <v>71</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>40</v>
@@ -11355,10 +11367,10 @@
         <v>138</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>40</v>
@@ -11376,7 +11388,7 @@
         <v>40</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>41</v>
@@ -11391,13 +11403,13 @@
         <v>40</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>40</v>
@@ -11405,7 +11417,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11428,17 +11440,17 @@
         <v>53</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>40</v>
@@ -11487,7 +11499,7 @@
         <v>40</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>41</v>
@@ -11502,21 +11514,21 @@
         <v>40</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11530,7 +11542,7 @@
         <v>41</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>40</v>
@@ -11539,17 +11551,17 @@
         <v>40</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>40</v>
@@ -11598,7 +11610,7 @@
         <v>40</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
@@ -11616,10 +11628,10 @@
         <v>40</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>40</v>
@@ -11627,7 +11639,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11650,13 +11662,13 @@
         <v>40</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -11695,7 +11707,7 @@
         <v>40</v>
       </c>
       <c r="AA91" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AB91" s="2"/>
       <c r="AC91" t="s" s="2">
@@ -11705,7 +11717,7 @@
         <v>113</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>41</v>
@@ -11717,16 +11729,16 @@
         <v>40</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>40</v>
@@ -11734,7 +11746,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11843,7 +11855,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11954,11 +11966,11 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -11983,7 +11995,7 @@
         <v>104</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M94" t="s" s="2">
         <v>101</v>
@@ -12036,7 +12048,7 @@
         <v>40</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>41</v>
@@ -12065,7 +12077,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12091,14 +12103,14 @@
         <v>108</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>40</v>
@@ -12147,7 +12159,7 @@
         <v>40</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>41</v>
@@ -12165,7 +12177,7 @@
         <v>40</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>40</v>
@@ -12176,7 +12188,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12202,10 +12214,10 @@
         <v>144</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -12232,13 +12244,13 @@
         <v>40</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>40</v>
@@ -12256,7 +12268,7 @@
         <v>40</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>52</v>
@@ -12274,10 +12286,10 @@
         <v>40</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>40</v>
@@ -12285,7 +12297,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12311,14 +12323,14 @@
         <v>195</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>40</v>
@@ -12367,7 +12379,7 @@
         <v>40</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>41</v>
@@ -12385,10 +12397,10 @@
         <v>40</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>40</v>
@@ -12396,7 +12408,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12422,10 +12434,10 @@
         <v>203</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12476,7 +12488,7 @@
         <v>40</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>41</v>
@@ -12494,7 +12506,7 @@
         <v>40</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>40</v>
@@ -12505,7 +12517,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>231</v>
@@ -12530,13 +12542,13 @@
         <v>40</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -12587,7 +12599,7 @@
         <v>40</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>41</v>
@@ -12599,16 +12611,16 @@
         <v>40</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>40</v>
@@ -12616,7 +12628,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12725,7 +12737,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12836,11 +12848,11 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -12865,7 +12877,7 @@
         <v>104</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M102" t="s" s="2">
         <v>101</v>
@@ -12918,7 +12930,7 @@
         <v>40</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>41</v>
@@ -12947,7 +12959,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12976,11 +12988,11 @@
         <v>237</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>40</v>
@@ -13029,7 +13041,7 @@
         <v>40</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>41</v>
@@ -13041,13 +13053,13 @@
         <v>40</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>40</v>
@@ -13058,7 +13070,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13167,7 +13179,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13278,7 +13290,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13391,7 +13403,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13417,7 +13429,7 @@
         <v>144</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L107" t="s" s="2">
         <v>146</v>
@@ -13504,7 +13516,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13613,7 +13625,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13724,7 +13736,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13837,7 +13849,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13950,7 +13962,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -13976,7 +13988,7 @@
         <v>65</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L112" t="s" s="2">
         <v>219</v>
@@ -14061,7 +14073,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14087,7 +14099,7 @@
         <v>123</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L113" t="s" s="2">
         <v>186</v>
@@ -14172,7 +14184,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14281,7 +14293,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14392,7 +14404,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14418,10 +14430,10 @@
         <v>144</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -14448,13 +14460,13 @@
         <v>40</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>40</v>
@@ -14472,7 +14484,7 @@
         <v>40</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>52</v>
@@ -14490,10 +14502,10 @@
         <v>40</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>40</v>
@@ -14501,7 +14513,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14610,7 +14622,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14721,7 +14733,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -14834,7 +14846,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14860,7 +14872,7 @@
         <v>123</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L120" t="s" s="2">
         <v>167</v>
@@ -14947,7 +14959,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -14973,14 +14985,14 @@
         <v>195</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>40</v>
@@ -15029,7 +15041,7 @@
         <v>40</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>41</v>
@@ -15047,10 +15059,10 @@
         <v>40</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>40</v>
@@ -15058,7 +15070,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15084,10 +15096,10 @@
         <v>203</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -15138,7 +15150,7 @@
         <v>40</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>41</v>
@@ -15156,7 +15168,7 @@
         <v>40</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>40</v>
@@ -15167,7 +15179,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15276,7 +15288,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15387,7 +15399,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15413,13 +15425,13 @@
         <v>123</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -15469,7 +15481,7 @@
         <v>40</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>41</v>
@@ -15478,7 +15490,7 @@
         <v>52</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>40</v>
@@ -15498,7 +15510,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15524,13 +15536,13 @@
         <v>108</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
@@ -15580,7 +15592,7 @@
         <v>40</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>41</v>
@@ -15598,7 +15610,7 @@
         <v>40</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>40</v>
@@ -15609,7 +15621,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15635,13 +15647,13 @@
         <v>123</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
@@ -15649,7 +15661,7 @@
       </c>
       <c r="P127" s="2"/>
       <c r="Q127" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="R127" t="s" s="2">
         <v>40</v>
@@ -15691,7 +15703,7 @@
         <v>40</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>41</v>
@@ -15720,7 +15732,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -15746,16 +15758,16 @@
         <v>144</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>40</v>
@@ -15784,7 +15796,7 @@
       </c>
       <c r="X128" s="2"/>
       <c r="Y128" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>40</v>
@@ -15802,7 +15814,7 @@
         <v>40</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>41</v>
@@ -15817,13 +15829,13 @@
         <v>40</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>40</v>

--- a/output/EventSummary/practitioner-ident-1.xlsx
+++ b/output/EventSummary/practitioner-ident-1.xlsx
@@ -1152,7 +1152,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-inv-dh-prac-01:The issuer organisation shall conform to Base Organization {issuer.reference.resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1')}</t>
+inv-dh-prac-01:The issuer reference shall at least have a reference, an identifier or a display {issuer.exists() implies (issuer.reference.exists() or issuer.identifier.exists() or issuer.display.exists())}inv-dh-prac-02:The issuer organisation shall conform to Base Organization {issuer.exists() implies issuer.reference.resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1')}</t>
   </si>
   <si>
     <t>CER?</t>

--- a/output/EventSummary/practitioner-ident-1.xlsx
+++ b/output/EventSummary/practitioner-ident-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$108</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4489" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3787" uniqueCount="395">
   <si>
     <t>Path</t>
   </si>
@@ -156,7 +156,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}inv-dh-prac-01:The practitioner shall at least have one identifier with a system and a value {identifier.where(system.count() + value.count() &gt;1).exists()}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -780,166 +780,11 @@
     <t>The value that is unique</t>
   </si>
   <si>
-    <t>employeeNumber</t>
-  </si>
-  <si>
-    <t>Employee Number</t>
-  </si>
-  <si>
-    <t>Employee number type</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/v2/0203"/&gt;
-    &lt;code value="EI"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.type.coding.id</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.type.coding.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.type.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should de-reference to some definition that establish the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/v2/0203</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.type.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured. and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.type.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>EI</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.type.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.type.coding.userSelected</t>
+    <t>Practitioner.active</t>
   </si>
   <si>
     <t xml:space="preserve">boolean
 </t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - i.e. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Namespace for employee number</t>
-  </si>
-  <si>
-    <t>Employee number</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](https://build.fhir.org/ig/hl7au/au-fhir-base-stu3/extension-rendered-value.html).</t>
-  </si>
-  <si>
-    <t>Practitioner.active</t>
   </si>
   <si>
     <t>Whether this practitioner's record is in active use</t>
@@ -972,33 +817,33 @@
 </t>
   </si>
   <si>
-    <t>The name(s) associated with the practitioner</t>
-  </si>
-  <si>
-    <t>The name(s) associated with the practitioner.</t>
-  </si>
-  <si>
-    <t>The selection of the use property should ensure that there is a single usual name specified, and others use the nickname (alias), old, or other values as appropriate.--In general select the value to be used in the ResourceReference.display based on this:--1. There is more than 1 name-2. Use = usual-3. Period is current to the date of the usage-4. Use = official-5. Other order as decided by internal business rules.</t>
+    <t>Name of a human - parts and usage</t>
+  </si>
+  <si>
+    <t>A human's name with the ability to identify parts and usage.</t>
+  </si>
+  <si>
+    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts may or may not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
   </si>
   <si>
     <t>The name(s) that a Practitioner is known by. Where there are multiple, the name that the practitioner is usually known as should be used in the display.</t>
   </si>
   <si>
-    <t>XCN Components</t>
-  </si>
-  <si>
-    <t>./name</t>
-  </si>
-  <si>
-    <t>./PreferredName (GivenNames, FamilyName, TitleCode)</t>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+inv-dh-humn-01:The name shall at least have text or a family name or a given name {text.exists() or family.exists() or given.exists()}</t>
+  </si>
+  <si>
+    <t>XPN</t>
+  </si>
+  <si>
+    <t>EN (actually, PN)</t>
+  </si>
+  <si>
+    <t>ProviderName</t>
   </si>
   <si>
     <t>Practitioner.telecom</t>
@@ -1152,7 +997,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-inv-dh-prac-01:The issuer reference shall at least have a reference, an identifier or a display {issuer.exists() implies (issuer.reference.exists() or issuer.identifier.exists() or issuer.display.exists())}inv-dh-prac-02:The issuer organisation shall conform to Base Organization {issuer.exists() implies issuer.reference.resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1')}</t>
+inv-dh-prac-02:The issuer reference shall at least have a reference, an identifier or a display {issuer.exists() implies issuer.all($this.reference.exists() or $this.identifier.exists() or $this.display.exists())}inv-dh-prac-03:The issuer organisation shall conform to Base Organization {issuer.reference.exists() implies issuer.all($this.reference.resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1'))}</t>
   </si>
   <si>
     <t>CER?</t>
@@ -1565,7 +1410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM128"/>
+  <dimension ref="A1:AM108"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1597,7 +1442,7 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="55.56640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="73.765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.171875" customWidth="true" bestFit="true"/>
@@ -1611,7 +1456,7 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="43.9296875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="99.6875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="51.21484375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="50.04296875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="23.1640625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -8628,13 +8473,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="B64" t="s" s="2">
         <v>241</v>
       </c>
+      <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
         <v>40</v>
       </c>
@@ -8643,10 +8486,10 @@
         <v>41</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>40</v>
@@ -8655,20 +8498,22 @@
         <v>53</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>108</v>
+        <v>242</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="N64" t="s" s="2">
-        <v>111</v>
+        <v>246</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>40</v>
+        <v>247</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
@@ -8714,13 +8559,13 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>107</v>
+        <v>241</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>40</v>
@@ -8729,21 +8574,21 @@
         <v>40</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>115</v>
+        <v>248</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>117</v>
+        <v>249</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>122</v>
+        <v>250</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8754,10 +8599,10 @@
         <v>41</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>40</v>
@@ -8766,16 +8611,20 @@
         <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>123</v>
+        <v>251</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>40</v>
       </c>
@@ -8823,40 +8672,40 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>126</v>
+        <v>250</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>40</v>
+        <v>256</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>40</v>
+        <v>257</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>40</v>
+        <v>258</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>127</v>
+        <v>259</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>40</v>
+        <v>260</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>128</v>
+        <v>261</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -8866,27 +8715,29 @@
         <v>42</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>98</v>
+        <v>262</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>99</v>
+        <v>263</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>129</v>
+        <v>264</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>40</v>
       </c>
@@ -8922,19 +8773,19 @@
         <v>40</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>132</v>
+        <v>261</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -8949,21 +8800,21 @@
         <v>40</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>40</v>
+        <v>267</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>127</v>
+        <v>268</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>40</v>
+        <v>269</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>133</v>
+        <v>270</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8974,31 +8825,31 @@
         <v>41</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>71</v>
+        <v>271</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>134</v>
+        <v>272</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>135</v>
+        <v>273</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>136</v>
+        <v>274</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>137</v>
+        <v>275</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>40</v>
@@ -9023,13 +8874,13 @@
         <v>40</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>40</v>
@@ -9047,13 +8898,13 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>141</v>
+        <v>270</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>40</v>
@@ -9062,21 +8913,21 @@
         <v>40</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>95</v>
+        <v>276</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>142</v>
+        <v>277</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>40</v>
+        <v>278</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>143</v>
+        <v>279</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9084,13 +8935,13 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>40</v>
@@ -9099,19 +8950,17 @@
         <v>53</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>148</v>
+        <v>282</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>40</v>
@@ -9121,7 +8970,7 @@
         <v>40</v>
       </c>
       <c r="R68" t="s" s="2">
-        <v>244</v>
+        <v>40</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>40</v>
@@ -9136,13 +8985,13 @@
         <v>40</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>246</v>
+        <v>284</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>40</v>
@@ -9160,7 +9009,7 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>152</v>
+        <v>279</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -9175,21 +9024,21 @@
         <v>40</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>153</v>
+        <v>285</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>142</v>
+        <v>286</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>40</v>
+        <v>287</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>154</v>
+        <v>288</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9203,25 +9052,27 @@
         <v>52</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>123</v>
+        <v>289</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>124</v>
+        <v>290</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>125</v>
+        <v>291</v>
       </c>
       <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+      <c r="N69" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>40</v>
       </c>
@@ -9269,7 +9120,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>126</v>
+        <v>288</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9284,13 +9135,13 @@
         <v>40</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>40</v>
+        <v>293</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>127</v>
+        <v>294</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>40</v>
+        <v>295</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>40</v>
@@ -9298,18 +9149,18 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>155</v>
+        <v>296</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>40</v>
@@ -9321,18 +9172,18 @@
         <v>40</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>98</v>
+        <v>297</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>99</v>
+        <v>298</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>40</v>
       </c>
@@ -9368,19 +9219,19 @@
         <v>40</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="AC70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>132</v>
+        <v>296</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -9398,10 +9249,10 @@
         <v>40</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>127</v>
+        <v>301</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>40</v>
+        <v>302</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>40</v>
@@ -9409,7 +9260,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>156</v>
+        <v>303</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9417,35 +9268,31 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>157</v>
+        <v>304</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>158</v>
+        <v>305</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>40</v>
       </c>
@@ -9469,29 +9316,29 @@
         <v>40</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="X71" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y71" t="s" s="2">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="AB71" s="2"/>
       <c r="AC71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>162</v>
+        <v>303</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -9503,16 +9350,16 @@
         <v>40</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>40</v>
+        <v>308</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>163</v>
+        <v>309</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>164</v>
+        <v>310</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>40</v>
+        <v>311</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>40</v>
@@ -9520,7 +9367,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>247</v>
+        <v>312</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9629,7 +9476,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9699,16 +9546,16 @@
         <v>40</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
         <v>132</v>
@@ -9740,49 +9587,47 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>249</v>
+        <v>314</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>40</v>
+        <v>315</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>250</v>
+        <v>104</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>251</v>
+        <v>316</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
-        <v>254</v>
+        <v>40</v>
       </c>
       <c r="R74" t="s" s="2">
         <v>40</v>
@@ -9824,13 +9669,13 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>255</v>
+        <v>317</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>40</v>
@@ -9839,10 +9684,10 @@
         <v>40</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>256</v>
+        <v>40</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>257</v>
+        <v>95</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>40</v>
@@ -9853,7 +9698,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>258</v>
+        <v>318</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9864,7 +9709,7 @@
         <v>41</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>40</v>
@@ -9873,21 +9718,21 @@
         <v>40</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>259</v>
+        <v>319</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>40</v>
       </c>
@@ -9935,13 +9780,13 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>262</v>
+        <v>318</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>40</v>
@@ -9950,10 +9795,10 @@
         <v>40</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>264</v>
+        <v>322</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>40</v>
@@ -9964,7 +9809,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>265</v>
+        <v>323</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9984,27 +9829,25 @@
         <v>40</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>266</v>
+        <v>324</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>267</v>
+        <v>325</v>
       </c>
       <c r="M76" s="2"/>
-      <c r="N76" t="s" s="2">
-        <v>268</v>
-      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
-        <v>269</v>
+        <v>40</v>
       </c>
       <c r="R76" t="s" s="2">
         <v>40</v>
@@ -10022,13 +9865,13 @@
         <v>40</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>40</v>
+        <v>326</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>40</v>
+        <v>327</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>40</v>
+        <v>328</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>40</v>
@@ -10046,10 +9889,10 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>52</v>
@@ -10061,13 +9904,13 @@
         <v>40</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>271</v>
+        <v>40</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>40</v>
+        <v>329</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>40</v>
@@ -10075,7 +9918,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>273</v>
+        <v>330</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10095,20 +9938,20 @@
         <v>40</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>274</v>
+        <v>331</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>275</v>
+        <v>332</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>276</v>
+        <v>333</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>40</v>
@@ -10157,7 +10000,7 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>277</v>
+        <v>330</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -10172,13 +10015,13 @@
         <v>40</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>278</v>
+        <v>40</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>279</v>
+        <v>334</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>40</v>
+        <v>335</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>40</v>
@@ -10186,7 +10029,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>280</v>
+        <v>336</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10206,23 +10049,19 @@
         <v>40</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>281</v>
+        <v>203</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>282</v>
+        <v>337</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>40</v>
       </c>
@@ -10270,7 +10109,7 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>286</v>
+        <v>336</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -10285,10 +10124,10 @@
         <v>40</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>287</v>
+        <v>40</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>288</v>
+        <v>339</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>40</v>
@@ -10299,9 +10138,11 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="B79" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="C79" t="s" s="2">
         <v>40</v>
       </c>
@@ -10310,7 +10151,7 @@
         <v>41</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>40</v>
@@ -10319,23 +10160,19 @@
         <v>40</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>123</v>
+        <v>304</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>166</v>
+        <v>340</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>40</v>
       </c>
@@ -10383,28 +10220,28 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>171</v>
+        <v>303</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>40</v>
+        <v>342</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>172</v>
+        <v>309</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>173</v>
+        <v>310</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>40</v>
+        <v>311</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>40</v>
@@ -10412,7 +10249,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>174</v>
+        <v>312</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10420,7 +10257,7 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F80" t="s" s="2">
         <v>52</v>
@@ -10432,21 +10269,19 @@
         <v>40</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>289</v>
+        <v>124</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>219</v>
+        <v>125</v>
       </c>
       <c r="M80" s="2"/>
-      <c r="N80" t="s" s="2">
-        <v>177</v>
-      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>40</v>
       </c>
@@ -10458,7 +10293,7 @@
         <v>40</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>40</v>
@@ -10494,7 +10329,7 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>180</v>
+        <v>126</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -10509,13 +10344,13 @@
         <v>40</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>182</v>
+        <v>127</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>40</v>
@@ -10523,18 +10358,18 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>184</v>
+        <v>313</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>40</v>
@@ -10543,19 +10378,19 @@
         <v>40</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>290</v>
+        <v>99</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>291</v>
+        <v>101</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -10569,7 +10404,7 @@
         <v>40</v>
       </c>
       <c r="S81" t="s" s="2">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="T81" t="s" s="2">
         <v>40</v>
@@ -10605,13 +10440,13 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>40</v>
@@ -10620,13 +10455,13 @@
         <v>40</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>193</v>
+        <v>40</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>40</v>
@@ -10634,38 +10469,40 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>194</v>
+        <v>314</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>40</v>
+        <v>315</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>195</v>
+        <v>98</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>40</v>
@@ -10714,13 +10551,13 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>198</v>
+        <v>317</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>40</v>
@@ -10729,13 +10566,13 @@
         <v>40</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>201</v>
+        <v>40</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>40</v>
@@ -10743,7 +10580,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>202</v>
+        <v>318</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10751,7 +10588,7 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F83" t="s" s="2">
         <v>52</v>
@@ -10763,21 +10600,21 @@
         <v>40</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>203</v>
+        <v>108</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="O83" t="s" s="2">
         <v>40</v>
       </c>
@@ -10825,36 +10662,36 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>207</v>
+        <v>318</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>40</v>
+        <v>343</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>208</v>
+        <v>40</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>209</v>
+        <v>322</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>292</v>
+        <v>344</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10868,31 +10705,27 @@
         <v>52</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>281</v>
+        <v>123</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>293</v>
+        <v>124</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
@@ -10938,7 +10771,7 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>292</v>
+        <v>126</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
@@ -10956,22 +10789,22 @@
         <v>40</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>298</v>
+        <v>127</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>299</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>300</v>
+        <v>345</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -10981,29 +10814,27 @@
         <v>42</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>301</v>
+        <v>98</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>302</v>
+        <v>99</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>303</v>
+        <v>129</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>40</v>
       </c>
@@ -11039,19 +10870,19 @@
         <v>40</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="AC85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD85" t="s" s="2">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>300</v>
+        <v>132</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
@@ -11066,21 +10897,21 @@
         <v>40</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>306</v>
+        <v>40</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>307</v>
+        <v>127</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>308</v>
+        <v>40</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11091,31 +10922,31 @@
         <v>41</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H86" t="s" s="2">
         <v>53</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>310</v>
+        <v>71</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>311</v>
+        <v>134</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>312</v>
+        <v>135</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>313</v>
+        <v>136</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>314</v>
+        <v>137</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>40</v>
@@ -11140,13 +10971,13 @@
         <v>40</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>40</v>
@@ -11164,13 +10995,13 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>309</v>
+        <v>141</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>40</v>
@@ -11179,21 +11010,21 @@
         <v>40</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>315</v>
+        <v>95</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>316</v>
+        <v>142</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>317</v>
+        <v>40</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>318</v>
+        <v>347</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11201,13 +11032,13 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>40</v>
@@ -11216,19 +11047,19 @@
         <v>53</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>319</v>
+        <v>144</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>321</v>
+        <v>146</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>322</v>
+        <v>147</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>323</v>
+        <v>148</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>40</v>
@@ -11238,7 +11069,7 @@
         <v>40</v>
       </c>
       <c r="R87" t="s" s="2">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="S87" t="s" s="2">
         <v>40</v>
@@ -11253,13 +11084,13 @@
         <v>40</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>40</v>
@@ -11277,13 +11108,13 @@
         <v>40</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>318</v>
+        <v>152</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>40</v>
@@ -11292,21 +11123,21 @@
         <v>40</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>324</v>
+        <v>153</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>325</v>
+        <v>142</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>326</v>
+        <v>40</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11320,27 +11151,25 @@
         <v>52</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>328</v>
+        <v>124</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>329</v>
+        <v>125</v>
       </c>
       <c r="M88" s="2"/>
-      <c r="N88" t="s" s="2">
-        <v>330</v>
-      </c>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>40</v>
       </c>
@@ -11364,13 +11193,13 @@
         <v>40</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>331</v>
+        <v>40</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>332</v>
+        <v>40</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>40</v>
@@ -11388,7 +11217,7 @@
         <v>40</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>327</v>
+        <v>126</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>41</v>
@@ -11403,55 +11232,55 @@
         <v>40</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>333</v>
+        <v>40</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>334</v>
+        <v>127</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>335</v>
+        <v>40</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>337</v>
+        <v>98</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>338</v>
+        <v>99</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M89" s="2"/>
-      <c r="N89" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>40</v>
       </c>
@@ -11487,25 +11316,25 @@
         <v>40</v>
       </c>
       <c r="AA89" t="s" s="2">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="AC89" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD89" t="s" s="2">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>336</v>
+        <v>132</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>40</v>
@@ -11514,13 +11343,13 @@
         <v>40</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>341</v>
+        <v>40</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>342</v>
+        <v>127</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>343</v>
+        <v>40</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>40</v>
@@ -11528,7 +11357,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11539,7 +11368,7 @@
         <v>41</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>40</v>
@@ -11548,20 +11377,22 @@
         <v>40</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>345</v>
+        <v>157</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>346</v>
+        <v>158</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M90" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="N90" t="s" s="2">
-        <v>348</v>
+        <v>161</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>40</v>
@@ -11610,7 +11441,7 @@
         <v>40</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>344</v>
+        <v>162</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
@@ -11625,13 +11456,13 @@
         <v>40</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>349</v>
+        <v>164</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>40</v>
@@ -11639,7 +11470,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11647,37 +11478,41 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I91" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J91" t="s" s="2">
-        <v>352</v>
+        <v>123</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>353</v>
+        <v>166</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O91" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="R91" t="s" s="2">
         <v>40</v>
@@ -11707,38 +11542,40 @@
         <v>40</v>
       </c>
       <c r="AA91" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AB91" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC91" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD91" t="s" s="2">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>351</v>
+        <v>171</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>356</v>
+        <v>40</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>357</v>
+        <v>172</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>358</v>
+        <v>173</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>359</v>
+        <v>40</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>40</v>
@@ -11746,7 +11583,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11754,7 +11591,7 @@
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F92" t="s" s="2">
         <v>52</v>
@@ -11766,31 +11603,33 @@
         <v>40</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>124</v>
+        <v>354</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>125</v>
+        <v>219</v>
       </c>
       <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
+      <c r="N92" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="O92" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
-        <v>40</v>
+        <v>239</v>
       </c>
       <c r="R92" t="s" s="2">
         <v>40</v>
       </c>
       <c r="S92" t="s" s="2">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="T92" t="s" s="2">
         <v>40</v>
@@ -11826,7 +11665,7 @@
         <v>40</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>41</v>
@@ -11841,13 +11680,13 @@
         <v>40</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>40</v>
@@ -11855,18 +11694,18 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>40</v>
@@ -11875,19 +11714,19 @@
         <v>40</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>99</v>
+        <v>356</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>101</v>
+        <v>187</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -11901,7 +11740,7 @@
         <v>40</v>
       </c>
       <c r="S93" t="s" s="2">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="T93" t="s" s="2">
         <v>40</v>
@@ -11937,13 +11776,13 @@
         <v>40</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>40</v>
@@ -11952,13 +11791,13 @@
         <v>40</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>127</v>
+        <v>192</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>40</v>
@@ -11966,40 +11805,38 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>363</v>
+        <v>40</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>98</v>
+        <v>195</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>104</v>
+        <v>196</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="M94" s="2"/>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>40</v>
@@ -12048,13 +11885,13 @@
         <v>40</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>365</v>
+        <v>198</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>40</v>
@@ -12063,13 +11900,13 @@
         <v>40</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>40</v>
+        <v>201</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>40</v>
@@ -12077,7 +11914,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12088,7 +11925,7 @@
         <v>41</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>40</v>
@@ -12097,21 +11934,21 @@
         <v>40</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>108</v>
+        <v>203</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>367</v>
+        <v>204</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>40</v>
       </c>
@@ -12159,13 +11996,13 @@
         <v>40</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>366</v>
+        <v>207</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>40</v>
@@ -12174,13 +12011,13 @@
         <v>40</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>370</v>
+        <v>209</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>40</v>
@@ -12188,7 +12025,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>371</v>
+        <v>323</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12214,10 +12051,10 @@
         <v>144</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -12244,13 +12081,13 @@
         <v>40</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>374</v>
+        <v>326</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>375</v>
+        <v>327</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>376</v>
+        <v>328</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>40</v>
@@ -12268,7 +12105,7 @@
         <v>40</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>371</v>
+        <v>323</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>52</v>
@@ -12286,10 +12123,10 @@
         <v>40</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>358</v>
+        <v>310</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>40</v>
@@ -12297,7 +12134,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12320,18 +12157,16 @@
         <v>40</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>195</v>
+        <v>123</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>379</v>
+        <v>124</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>380</v>
+        <v>125</v>
       </c>
       <c r="M97" s="2"/>
-      <c r="N97" t="s" s="2">
-        <v>381</v>
-      </c>
+      <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>40</v>
       </c>
@@ -12379,7 +12214,7 @@
         <v>40</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>378</v>
+        <v>126</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>41</v>
@@ -12397,10 +12232,10 @@
         <v>40</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>382</v>
+        <v>127</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>383</v>
+        <v>40</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>40</v>
@@ -12408,18 +12243,18 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>40</v>
@@ -12431,15 +12266,17 @@
         <v>40</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>203</v>
+        <v>98</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>385</v>
+        <v>99</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M98" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>40</v>
@@ -12476,25 +12313,25 @@
         <v>40</v>
       </c>
       <c r="AA98" t="s" s="2">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="AC98" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD98" t="s" s="2">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>384</v>
+        <v>132</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>40</v>
@@ -12506,7 +12343,7 @@
         <v>40</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>387</v>
+        <v>127</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>40</v>
@@ -12517,11 +12354,9 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
         <v>40</v>
       </c>
@@ -12539,19 +12374,23 @@
         <v>40</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>352</v>
+        <v>157</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>388</v>
+        <v>158</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O99" t="s" s="2">
         <v>40</v>
       </c>
@@ -12599,7 +12438,7 @@
         <v>40</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>351</v>
+        <v>162</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>41</v>
@@ -12611,16 +12450,16 @@
         <v>40</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>390</v>
+        <v>40</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>357</v>
+        <v>163</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>358</v>
+        <v>164</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>359</v>
+        <v>40</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>40</v>
@@ -12628,7 +12467,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12636,7 +12475,7 @@
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F100" t="s" s="2">
         <v>52</v>
@@ -12648,19 +12487,23 @@
         <v>40</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="J100" t="s" s="2">
         <v>123</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>124</v>
+        <v>365</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O100" t="s" s="2">
         <v>40</v>
       </c>
@@ -12708,7 +12551,7 @@
         <v>40</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>41</v>
@@ -12723,10 +12566,10 @@
         <v>40</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>40</v>
@@ -12737,18 +12580,18 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>40</v>
@@ -12760,18 +12603,18 @@
         <v>40</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>98</v>
+        <v>195</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>99</v>
+        <v>331</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N101" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="M101" s="2"/>
+      <c r="N101" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="O101" t="s" s="2">
         <v>40</v>
       </c>
@@ -12819,13 +12662,13 @@
         <v>40</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>132</v>
+        <v>330</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>40</v>
@@ -12837,10 +12680,10 @@
         <v>40</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>127</v>
+        <v>334</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>40</v>
+        <v>335</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>40</v>
@@ -12848,40 +12691,38 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>362</v>
+        <v>336</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>363</v>
+        <v>40</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>98</v>
+        <v>203</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>104</v>
+        <v>337</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="M102" s="2"/>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>40</v>
@@ -12930,13 +12771,13 @@
         <v>40</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>40</v>
@@ -12948,7 +12789,7 @@
         <v>40</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>95</v>
+        <v>339</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>40</v>
@@ -12967,7 +12808,7 @@
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F103" t="s" s="2">
         <v>52</v>
@@ -12982,18 +12823,16 @@
         <v>40</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>237</v>
+        <v>124</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>368</v>
+        <v>125</v>
       </c>
       <c r="M103" s="2"/>
-      <c r="N103" t="s" s="2">
-        <v>369</v>
-      </c>
+      <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
         <v>40</v>
       </c>
@@ -13041,25 +12880,25 @@
         <v>40</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>366</v>
+        <v>126</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>391</v>
+        <v>40</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>370</v>
+        <v>127</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>40</v>
@@ -13070,18 +12909,18 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>40</v>
@@ -13093,15 +12932,17 @@
         <v>40</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M104" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>40</v>
@@ -13138,25 +12979,25 @@
         <v>40</v>
       </c>
       <c r="AA104" t="s" s="2">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="AC104" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD104" t="s" s="2">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>40</v>
@@ -13179,18 +13020,18 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>40</v>
@@ -13199,19 +13040,19 @@
         <v>40</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>99</v>
+        <v>369</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>129</v>
+        <v>370</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>101</v>
+        <v>371</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -13249,28 +13090,28 @@
         <v>40</v>
       </c>
       <c r="AA105" t="s" s="2">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="AC105" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD105" t="s" s="2">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>132</v>
+        <v>372</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>40</v>
+        <v>373</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>40</v>
@@ -13279,7 +13120,7 @@
         <v>40</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>40</v>
@@ -13290,7 +13131,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13307,26 +13148,24 @@
         <v>40</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="I106" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>134</v>
+        <v>375</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>135</v>
+        <v>376</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
         <v>40</v>
       </c>
@@ -13350,13 +13189,13 @@
         <v>40</v>
       </c>
       <c r="W106" t="s" s="2">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>40</v>
@@ -13374,7 +13213,7 @@
         <v>40</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>141</v>
+        <v>378</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>41</v>
@@ -13389,10 +13228,10 @@
         <v>40</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>142</v>
+        <v>379</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>40</v>
@@ -13403,7 +13242,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13426,29 +13265,27 @@
         <v>53</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>146</v>
+        <v>382</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" t="s" s="2">
-        <v>40</v>
+        <v>384</v>
       </c>
       <c r="R107" t="s" s="2">
-        <v>236</v>
+        <v>40</v>
       </c>
       <c r="S107" t="s" s="2">
         <v>40</v>
@@ -13463,13 +13300,13 @@
         <v>40</v>
       </c>
       <c r="W107" t="s" s="2">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>40</v>
@@ -13487,7 +13324,7 @@
         <v>40</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>152</v>
+        <v>385</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>41</v>
@@ -13502,10 +13339,10 @@
         <v>40</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>40</v>
@@ -13514,9 +13351,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="108" hidden="true">
+    <row r="108">
       <c r="A108" t="s" s="2">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13527,10 +13364,10 @@
         <v>41</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>40</v>
@@ -13539,16 +13376,20 @@
         <v>40</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>124</v>
+        <v>387</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="O108" t="s" s="2">
         <v>40</v>
       </c>
@@ -13572,13 +13413,11 @@
         <v>40</v>
       </c>
       <c r="W108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="X108" s="2"/>
       <c r="Y108" t="s" s="2">
-        <v>40</v>
+        <v>391</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>40</v>
@@ -13596,13 +13435,13 @@
         <v>40</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>126</v>
+        <v>386</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>40</v>
@@ -13611,2238 +13450,20 @@
         <v>40</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>40</v>
+        <v>392</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>127</v>
+        <v>393</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>40</v>
+        <v>394</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="109" hidden="true">
-      <c r="A109" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="B109" s="2"/>
-      <c r="C109" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="D109" s="2"/>
-      <c r="E109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F109" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N109" s="2"/>
-      <c r="O109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P109" s="2"/>
-      <c r="Q109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="110" hidden="true">
-      <c r="A110" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="B110" s="2"/>
-      <c r="C110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D110" s="2"/>
-      <c r="E110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F110" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P110" s="2"/>
-      <c r="Q110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="111" hidden="true">
-      <c r="A111" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="B111" s="2"/>
-      <c r="C111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D111" s="2"/>
-      <c r="E111" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="F111" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P111" s="2"/>
-      <c r="Q111" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="R111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="112" hidden="true">
-      <c r="A112" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="B112" s="2"/>
-      <c r="C112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D112" s="2"/>
-      <c r="E112" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="F112" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J112" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M112" s="2"/>
-      <c r="N112" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P112" s="2"/>
-      <c r="Q112" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="R112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S112" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ112" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="113" hidden="true">
-      <c r="A113" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="B113" s="2"/>
-      <c r="C113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D113" s="2"/>
-      <c r="E113" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="F113" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N113" s="2"/>
-      <c r="O113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P113" s="2"/>
-      <c r="Q113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S113" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="114" hidden="true">
-      <c r="A114" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B114" s="2"/>
-      <c r="C114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D114" s="2"/>
-      <c r="E114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F114" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J114" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M114" s="2"/>
-      <c r="N114" s="2"/>
-      <c r="O114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P114" s="2"/>
-      <c r="Q114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="115" hidden="true">
-      <c r="A115" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="B115" s="2"/>
-      <c r="C115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D115" s="2"/>
-      <c r="E115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F115" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I115" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J115" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N115" s="2"/>
-      <c r="O115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P115" s="2"/>
-      <c r="Q115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ115" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AK115" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="116" hidden="true">
-      <c r="A116" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="B116" s="2"/>
-      <c r="C116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D116" s="2"/>
-      <c r="E116" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="F116" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J116" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="K116" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
-      <c r="O116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P116" s="2"/>
-      <c r="Q116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W116" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="X116" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="Y116" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AL116" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AM116" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="117" hidden="true">
-      <c r="A117" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B117" s="2"/>
-      <c r="C117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D117" s="2"/>
-      <c r="E117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F117" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J117" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="K117" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M117" s="2"/>
-      <c r="N117" s="2"/>
-      <c r="O117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P117" s="2"/>
-      <c r="Q117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE117" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AF117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG117" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK117" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AL117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM117" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="118" hidden="true">
-      <c r="A118" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="B118" s="2"/>
-      <c r="C118" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="D118" s="2"/>
-      <c r="E118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F118" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G118" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J118" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K118" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N118" s="2"/>
-      <c r="O118" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P118" s="2"/>
-      <c r="Q118" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R118" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S118" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T118" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U118" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V118" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W118" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X118" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y118" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z118" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA118" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AC118" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD118" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AE118" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AF118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG118" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH118" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI118" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AL118" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="119" hidden="true">
-      <c r="A119" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="B119" s="2"/>
-      <c r="C119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D119" s="2"/>
-      <c r="E119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F119" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J119" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="K119" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P119" s="2"/>
-      <c r="Q119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE119" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AF119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG119" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AK119" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AL119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM119" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="120" hidden="true">
-      <c r="A120" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="B120" s="2"/>
-      <c r="C120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D120" s="2"/>
-      <c r="E120" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="F120" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I120" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J120" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="K120" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P120" s="2"/>
-      <c r="Q120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ120" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AK120" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AL120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="121" hidden="true">
-      <c r="A121" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="B121" s="2"/>
-      <c r="C121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D121" s="2"/>
-      <c r="E121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F121" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J121" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="K121" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M121" s="2"/>
-      <c r="N121" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P121" s="2"/>
-      <c r="Q121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK121" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AL121" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AM121" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="122" hidden="true">
-      <c r="A122" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="B122" s="2"/>
-      <c r="C122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D122" s="2"/>
-      <c r="E122" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="F122" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J122" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="K122" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M122" s="2"/>
-      <c r="N122" s="2"/>
-      <c r="O122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P122" s="2"/>
-      <c r="Q122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE122" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AF122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG122" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK122" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AL122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM122" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="123" hidden="true">
-      <c r="A123" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="B123" s="2"/>
-      <c r="C123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D123" s="2"/>
-      <c r="E123" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F123" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J123" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="K123" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M123" s="2"/>
-      <c r="N123" s="2"/>
-      <c r="O123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P123" s="2"/>
-      <c r="Q123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE123" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AF123" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG123" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK123" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AL123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM123" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="124" hidden="true">
-      <c r="A124" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="B124" s="2"/>
-      <c r="C124" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="D124" s="2"/>
-      <c r="E124" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F124" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G124" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H124" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I124" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J124" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K124" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N124" s="2"/>
-      <c r="O124" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P124" s="2"/>
-      <c r="Q124" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R124" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S124" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T124" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U124" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V124" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W124" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X124" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y124" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z124" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA124" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AB124" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AC124" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD124" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AE124" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AF124" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG124" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH124" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI124" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ124" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK124" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AL124" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM124" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="125" hidden="true">
-      <c r="A125" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="B125" s="2"/>
-      <c r="C125" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D125" s="2"/>
-      <c r="E125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F125" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G125" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H125" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I125" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J125" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="K125" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N125" s="2"/>
-      <c r="O125" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P125" s="2"/>
-      <c r="Q125" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R125" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S125" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T125" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U125" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V125" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W125" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X125" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y125" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z125" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA125" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB125" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD125" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE125" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AF125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG125" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH125" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AI125" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ125" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AL125" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM125" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="126" hidden="true">
-      <c r="A126" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="B126" s="2"/>
-      <c r="C126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D126" s="2"/>
-      <c r="E126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F126" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I126" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J126" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="K126" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N126" s="2"/>
-      <c r="O126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P126" s="2"/>
-      <c r="Q126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AF126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG126" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="127" hidden="true">
-      <c r="A127" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="B127" s="2"/>
-      <c r="C127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D127" s="2"/>
-      <c r="E127" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="F127" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I127" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J127" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="K127" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N127" s="2"/>
-      <c r="O127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P127" s="2"/>
-      <c r="Q127" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="R127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE127" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AF127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG127" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK127" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AL127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM127" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B128" s="2"/>
-      <c r="C128" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D128" s="2"/>
-      <c r="E128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F128" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G128" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="H128" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I128" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J128" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="K128" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="O128" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P128" s="2"/>
-      <c r="Q128" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R128" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S128" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T128" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U128" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V128" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W128" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X128" s="2"/>
-      <c r="Y128" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="Z128" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA128" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB128" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC128" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD128" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE128" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AF128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG128" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH128" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI128" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ128" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AK128" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AL128" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AM128" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM128">
+  <autoFilter ref="A1:AM108">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -15852,7 +13473,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI127">
+  <conditionalFormatting sqref="A2:AI107">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/EventSummary/practitioner-ident-1.xlsx
+++ b/output/EventSummary/practitioner-ident-1.xlsx
@@ -156,7 +156,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}inv-dh-prac-01:The practitioner shall at least have one identifier with a system and a value {identifier.where(system.count() + value.count() &gt;1).exists()}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}inv-dh-prac-01:At least one practitioner identifier shall at least have a system and a value {identifier.where(system.count() + value.count() &gt;1).exists()}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -997,7 +997,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-inv-dh-prac-02:The issuer reference shall at least have a reference, an identifier or a display {issuer.exists() implies issuer.all($this.reference.exists() or $this.identifier.exists() or $this.display.exists())}inv-dh-prac-03:The issuer organisation shall conform to Base Organization {issuer.reference.exists() implies issuer.all($this.reference.resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1'))}</t>
+inv-dh-prac-02:If present, an issuer shall at least have a reference, an identifier or a display {issuer.exists() implies issuer.all($this.reference.exists() or $this.identifier.exists() or $this.display.exists())}inv-dh-prac-03:If present, an issuer organisation shall conform to Base Organization {issuer.reference.exists() implies issuer.all($this.reference.resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1'))}</t>
   </si>
   <si>
     <t>CER?</t>

--- a/output/EventSummary/practitioner-ident-1.xlsx
+++ b/output/EventSummary/practitioner-ident-1.xlsx
@@ -580,7 +580,7 @@
     <t>http://ns.electronichealth.net.au/id/hi/hpii/1.0</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
+    <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
     <t>Identifier.system</t>
